--- a/tests/test_data/mapping_suite_processor/mappings/package_F03_demo/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/mapping_suite_processor/mappings/package_F03_demo/transformation/conceptual_mappings.xlsx
@@ -9591,7 +9591,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
